--- a/documents/gkill_user_document.xlsx
+++ b/documents/gkill_user_document.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yamat\Git\gkill\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07962EA9-173F-4941-AA5B-86B695DA4284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7E1C67-4E7F-413B-ACD3-0045391F42E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{231E213C-47DE-4CA2-9B9F-8072DD02A1E6}"/>
   </bookViews>
   <sheets>
-    <sheet name="利用ガイド" sheetId="1" r:id="rId1"/>
-    <sheet name="QA" sheetId="3" r:id="rId2"/>
+    <sheet name="導入" sheetId="6" r:id="rId1"/>
+    <sheet name="利用ガイド" sheetId="1" r:id="rId2"/>
+    <sheet name="QA" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">導入!$A$1:$AG$49</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="147">
   <si>
     <t>最終更新日時：2025/11/15 15:45</t>
     <rPh sb="0" eb="4">
@@ -1023,13 +1027,131 @@
   </si>
   <si>
     <t>対象についての分析結果を、日本語の文書にて詳細にお願いします。</t>
+  </si>
+  <si>
+    <t>gkill 導入</t>
+    <rPh sb="6" eb="8">
+      <t>ドウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>わたしは、記録がすきです。</t>
+  </si>
+  <si>
+    <t>一旦おいておいてあとから熟考したり、見返して懐かしんだり。諸々を豊かにしてくれるからです。</t>
+  </si>
+  <si>
+    <t>なんとなくですが、「記録」によって'よくなっている'気がします。</t>
+  </si>
+  <si>
+    <t>そんな記録好きの私ですが、gkillというライフログアプリケーションを作成しました。</t>
+  </si>
+  <si>
+    <t>今回は売り込みをさせてください！</t>
+  </si>
+  <si>
+    <t>3つの特徴からご紹介します！</t>
+  </si>
+  <si>
+    <t>★速攻の記録</t>
+  </si>
+  <si>
+    <t>　記録操作は、'いいかんじ'にするための手段であり通過地点です。</t>
+  </si>
+  <si>
+    <t>　サクっと記録しちゃいましょう！消えないうちに、「有」らせることだけ！</t>
+  </si>
+  <si>
+    <t>　・ボタン1つで記録できます！</t>
+  </si>
+  <si>
+    <t>　・Enterキー1回でメモ帳を起動できます！</t>
+  </si>
+  <si>
+    <t>　・キーボードだけで記録できます！（保存ボタンに腕を運ばなくてOK！）</t>
+  </si>
+  <si>
+    <t>★「景色」、「状況」とgkillでの検索</t>
+  </si>
+  <si>
+    <t>　gkillは「景色」を意識して開発しました。</t>
+  </si>
+  <si>
+    <t>　「去年の夏、新宿で友人Aとカフェで仕事について話をしたな～、とてもたのしかった」みたいな、景色。</t>
+  </si>
+  <si>
+    <t>　場所はこのあたり！友人Aといたとき！など「状況の一部」があれば、記録にたどり着くことができます！</t>
+  </si>
+  <si>
+    <t>　また、その記録から「景色」の想起を助けます！</t>
+  </si>
+  <si>
+    <t>　（もちろん、日時やキーワードからも探すことができますよ～）</t>
+  </si>
+  <si>
+    <t>★集計と分析</t>
+  </si>
+  <si>
+    <t>　gkillには簡単な集計機能があります。</t>
+  </si>
+  <si>
+    <t>　あなたの興味に合わせてカスタマイズしてください！</t>
+  </si>
+  <si>
+    <t>　また、もっとくわしく分析したいときもあると思います。</t>
+  </si>
+  <si>
+    <t>　そのときはAIに分析依頼できます！</t>
+  </si>
+  <si>
+    <t>　それ用のファイルを出力できます！</t>
+  </si>
+  <si>
+    <t>★gkill</t>
+  </si>
+  <si>
+    <t>　実際の感覚は、こちらから体験できます。</t>
+  </si>
+  <si>
+    <t>　サンプルの旅行記録です。もしよければためしてみてください！</t>
+  </si>
+  <si>
+    <t>　旅行サンプル記録：https://github.com/mt3hr/gkill/releases/download/v1.0.8/gkill_sample_data_v1.0.8.zip</t>
+  </si>
+  <si>
+    <t>　画面の説明　　　：https://github.com/mt3hr/gkill/raw/refs/heads/main/documents/gkill_user_document.xlsx</t>
+  </si>
+  <si>
+    <t>　①「gkill_sample_data_v1.0.8.zip」をクリックしてダウンロード</t>
+  </si>
+  <si>
+    <t>　②zipファイルを展開</t>
+  </si>
+  <si>
+    <t>　③「LAUNCH_GKILL_SAMPLE_DATA.bat」をダブルクリック</t>
+  </si>
+  <si>
+    <t>　④「ユーザ名：gkill_sample_data」「パスワード：sample」でログインできます！</t>
+  </si>
+  <si>
+    <t>さいごに。</t>
+  </si>
+  <si>
+    <t>すべての記録はあなただけが見れます。安心してください。</t>
+  </si>
+  <si>
+    <t>もし不具合があればこちらにご連絡ください。</t>
+  </si>
+  <si>
+    <t>ymt3shr@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1083,6 +1205,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1118,7 +1248,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1144,6 +1274,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1173,8 +1306,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>256725</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>2725</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>86436</xdr:rowOff>
     </xdr:to>
@@ -1217,8 +1350,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>256725</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>2725</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>89815</xdr:rowOff>
     </xdr:to>
@@ -1261,8 +1394,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>256725</xdr:colOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>2725</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>86061</xdr:rowOff>
     </xdr:to>
@@ -1305,8 +1438,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>256725</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>2725</xdr:colOff>
       <xdr:row>84</xdr:row>
       <xdr:rowOff>89632</xdr:rowOff>
     </xdr:to>
@@ -1349,8 +1482,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>256725</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>2725</xdr:colOff>
       <xdr:row>84</xdr:row>
       <xdr:rowOff>86062</xdr:rowOff>
     </xdr:to>
@@ -1393,8 +1526,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>256725</xdr:colOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>2725</xdr:colOff>
       <xdr:row>84</xdr:row>
       <xdr:rowOff>89816</xdr:rowOff>
     </xdr:to>
@@ -1701,8 +1834,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>256275</xdr:colOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>2275</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>1875</xdr:rowOff>
     </xdr:to>
@@ -1745,8 +1878,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>256275</xdr:colOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>2275</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>179632</xdr:rowOff>
     </xdr:to>
@@ -1789,8 +1922,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>256274</xdr:colOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>2274</xdr:colOff>
       <xdr:row>104</xdr:row>
       <xdr:rowOff>1875</xdr:rowOff>
     </xdr:to>
@@ -2584,10 +2717,239 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAC493F5-D12B-45E2-9B82-72B80CF1F903}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:AC49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="702" width="3.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="703" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:29" ht="35.25" x14ac:dyDescent="0.4">
+      <c r="B1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="S1" s="2"/>
+    </row>
+    <row r="2" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="AC2" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="AC3" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B4" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B5" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B6" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B8" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B9" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B10" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B12" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B13" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B14" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B15" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B16" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B17" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B19" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B20" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B21" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B23" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B24" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B25" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B27" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B28" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B29" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B31" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B32" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B33" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B35" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B36" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B37" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B39" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B40" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B41" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B42" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B43" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B44" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B46" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B47" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B48" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B49" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="69" man="1"/>
+  </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A64BFFB2-3335-42E1-BD0E-ACD6D1FF0915}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B1:AS266"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A235" zoomScale="60" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -3108,8 +3470,16 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="34" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="55" fitToHeight="0" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <rowBreaks count="6" manualBreakCount="6">
+    <brk id="52" max="16383" man="1"/>
+    <brk id="86" max="16383" man="1"/>
+    <brk id="124" max="16383" man="1"/>
+    <brk id="163" max="16383" man="1"/>
+    <brk id="187" max="16383" man="1"/>
+    <brk id="239" max="16383" man="1"/>
+  </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="69" man="1"/>
   </colBreaks>
@@ -3117,7 +3487,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F0C4C1-0883-401B-87BA-247F49FE07BA}">
   <dimension ref="B1:AS10"/>
   <sheetViews>
